--- a/others/VSCode-For-KayaBASIC.xlsx
+++ b/others/VSCode-For-KayaBASIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongbinHan\Documents\GitHub\Kaya-BASIC\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9AF7E-F019-4315-BA04-FDFCBF7D0824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A91796C-8F9E-4E99-AF16-5BBD8697E8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B4019E9-5368-45CF-99B0-E2E31AB50AE4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>1)</t>
     <phoneticPr fontId="1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F5 to run/debug, enjon GDB debugging.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>How to use VSCode to write KayaBASIC codes and debug</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>click bas file and enjon write codes with code completion.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KayaBASIC now can only debug with the generated c++ files.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -179,6 +171,18 @@
   </si>
   <si>
     <t>open cpp file and set breakpoints</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click bas file and enjoy write codes with code completion.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/1/26 Now can directly debug(still experimental)) bas file like FreeBAISC, please refrence [VSCode-For-FreeBASIC.xlsx]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F5 to run/debug, enjoy GDB debugging.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -186,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +242,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +290,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,13 +322,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>167307</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>235887</xdr:colOff>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -352,8 +370,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>25742</xdr:rowOff>
     </xdr:to>
@@ -396,8 +414,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>1445</xdr:rowOff>
     </xdr:to>
@@ -440,8 +458,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>20545</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89125</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -484,8 +502,8 @@
       <xdr:rowOff>21741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>236221</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>22487</xdr:rowOff>
     </xdr:to>
@@ -528,8 +546,8 @@
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>44390</xdr:rowOff>
     </xdr:to>
@@ -900,8 +918,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>193182</xdr:rowOff>
     </xdr:to>
@@ -1015,8 +1033,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>131968</xdr:rowOff>
     </xdr:to>
@@ -1059,8 +1077,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>167641</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>731521</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>63359</xdr:rowOff>
     </xdr:to>
@@ -1627,13 +1645,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1863,8 +1881,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>180143</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>248723</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
@@ -1903,13 +1921,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>20241</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>88821</xdr:colOff>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1947,13 +1965,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2342,15 +2360,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAB8FAB-278A-42A8-9C9E-9A37BD89470E}">
-  <dimension ref="A2:I212"/>
+  <dimension ref="A2:S213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -2439,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -2486,15 +2507,15 @@
         <v>25</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C166" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>26</v>
       </c>
@@ -2502,29 +2523,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C189" s="3" t="s">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C189" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C190" s="3"/>
+      <c r="D190" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C192" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C190" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C191" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C206" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C207" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C212" t="s">
-        <v>29</v>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C213" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
